--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1374170.415015138</v>
+        <v>1478350.049466211</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>273.9330293973869</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>62.45439117602642</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>50.55596175061132</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>173.626889274476</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -883,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>41.44021593277593</v>
+        <v>79.76470074482967</v>
       </c>
     </row>
     <row r="6">
@@ -1066,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>18.99000948844337</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>142.3844270995955</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>111.068325668461</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>15.3855909437625</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>92.67380998791543</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>127.8885134124236</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,10 +1341,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,10 +1353,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1373,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620684</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>27.02919805176204</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186453</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2002,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999787</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2245,10 +2247,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>99.97427419833815</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>19.91555826189198</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2491,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>107.4021082756238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>66.85274231757869</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2564,10 +2566,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2767,19 +2769,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>212.3267021497095</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>245.8796921214428</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2849,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2953,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>83.06560892428269</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +3000,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>105.6507867899533</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3199,10 +3201,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3250,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>12.96996784159862</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3323,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3430,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.9742741983392</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3554,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3667,13 +3669,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3791,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3901,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3946,10 +3948,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>46.15319674220952</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4135,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4144,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>166.8892976061571</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1590.416669135309</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.416669135309</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
         <v>1232.150970528558</v>
@@ -4325,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2354.0217593722</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>1980.556001111121</v>
+        <v>2008.890142568492</v>
       </c>
       <c r="Y2" t="n">
-        <v>1590.416669135309</v>
+        <v>1618.75081059268</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>936.5735814686085</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>846.071687106476</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>827.0643955080141</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.5121164321834</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="C4" t="n">
-        <v>66.5121164321834</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="D4" t="n">
-        <v>66.5121164321834</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="E4" t="n">
-        <v>66.5121164321834</v>
+        <v>214.9044216447586</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>214.9044216447586</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1751.913851851648</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1530.147236421175</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1241.044369546818</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>986.3598813409312</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>696.9427113039706</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X4" t="n">
-        <v>468.9531604059532</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y4" t="n">
-        <v>248.1605812624231</v>
+        <v>362.8175152271517</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1917.382287315189</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C5" t="n">
-        <v>1548.419770374778</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D5" t="n">
-        <v>1190.154071768027</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>3072.075344883006</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2719.306689612892</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2345.840931351812</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>2303.982127379311</v>
+        <v>1617.939223126803</v>
       </c>
     </row>
     <row r="6">
@@ -4635,19 +4637,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
         <v>765.151745215813</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>699.5498076188339</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>530.6136246909271</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>380.4969852785913</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>232.5838916961982</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>85.69394419828782</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>85.69394419828782</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1101.990851592604</v>
+        <v>1783.471894452538</v>
       </c>
       <c r="W7" t="n">
-        <v>1101.990851592604</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="X7" t="n">
-        <v>1101.990851592604</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y7" t="n">
-        <v>881.1982724490737</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1616.654488422266</v>
+        <v>1917.382287315189</v>
       </c>
       <c r="C8" t="n">
-        <v>1247.691971481854</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4829,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993393</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993393</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W8" t="n">
-        <v>2766.859418723279</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X8" t="n">
-        <v>2393.393660462199</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y8" t="n">
-        <v>2003.254328486387</v>
+        <v>2029.57251526313</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>659.4316570185995</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="C10" t="n">
-        <v>490.4954740906926</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="D10" t="n">
-        <v>490.4954740906926</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E10" t="n">
-        <v>342.5823805082995</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>195.6924330103891</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="W10" t="n">
-        <v>880.2242361621296</v>
+        <v>1004.259565728817</v>
       </c>
       <c r="X10" t="n">
-        <v>880.2242361621296</v>
+        <v>776.2700148307995</v>
       </c>
       <c r="Y10" t="n">
-        <v>659.4316570185995</v>
+        <v>555.4774356872693</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,22 +5029,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,40 +5053,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021791</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400721</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121652</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>317.6151975578601</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578601</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
         <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M13" t="n">
         <v>1248.15024091081</v>
@@ -5212,37 +5214,37 @@
         <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5275,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,7 +5296,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5358,25 +5360,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969299</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5510,16 +5512,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5543,10 +5545,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5589,31 +5591,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>579.1554649516144</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
         <v>261.0127623330919</v>
@@ -5671,52 +5673,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5744,37 +5746,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>2824.769373306004</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>2655.833190378097</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>2505.716550965761</v>
       </c>
       <c r="E22" t="n">
-        <v>93.81666304797187</v>
+        <v>2357.803457383368</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>4507.978318053499</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>4288.37685307644</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>3999.301626420638</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>3744.617138214751</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>3455.199968177791</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>3227.210417279774</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>3006.417838136244</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6075,16 +6077,16 @@
         <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>738.7889117913853</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N24" t="n">
-        <v>1366.386875345992</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O24" t="n">
-        <v>1918.296605585279</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P24" t="n">
-        <v>2341.919755080347</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>983.3556038098237</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C25" t="n">
-        <v>814.4194208819168</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D25" t="n">
-        <v>664.3027814695811</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>516.389687887188</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>369.4997403892776</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>202.3036411041575</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.435061037252</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>2159.833596060193</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924458</v>
+        <v>1870.758369404391</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718571</v>
+        <v>1616.073881198504</v>
       </c>
       <c r="W25" t="n">
-        <v>1613.786198681611</v>
+        <v>1326.656711161544</v>
       </c>
       <c r="X25" t="n">
-        <v>1385.796647783593</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="Y25" t="n">
-        <v>1165.004068640063</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6214,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,7 +6223,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6230,13 +6232,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C27" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D27" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>2565.513299557012</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>3060.83890577277</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>3060.83890577277</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>3688.436869327377</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S27" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T27" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U27" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V27" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W27" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X27" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y27" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="28">
@@ -6415,16 +6417,16 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1762.98966419767</v>
       </c>
       <c r="V28" t="n">
-        <v>1977.461080510508</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y28" t="n">
         <v>1280.315625093766</v>
@@ -6452,58 +6454,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>2490.32382148308</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M30" t="n">
-        <v>3087.702309109632</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N30" t="n">
-        <v>3715.300272664238</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>4267.210002903525</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6595,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2757.723669558405</v>
+        <v>3342.537229081862</v>
       </c>
       <c r="C31" t="n">
-        <v>2588.787486630498</v>
+        <v>3173.601046153955</v>
       </c>
       <c r="D31" t="n">
-        <v>2504.882831151424</v>
+        <v>3023.484406741619</v>
       </c>
       <c r="E31" t="n">
-        <v>2504.882831151424</v>
+        <v>2875.571313159226</v>
       </c>
       <c r="F31" t="n">
-        <v>2504.882831151424</v>
+        <v>2728.681365661316</v>
       </c>
       <c r="G31" t="n">
-        <v>2337.686731866304</v>
+        <v>2561.485266376196</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>2419.773435218394</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866308</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>2417.922750296631</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>2679.61201282217</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>3070.01060699811</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>3492.020309729145</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>3909.430181389153</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q31" t="n">
         <v>4690.833152398593</v>
@@ -6646,25 +6648,25 @@
         <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>4517.069482196496</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>4517.069482196496</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>4517.069482196496</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>4262.384993990609</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430192</v>
+        <v>3972.967823953649</v>
       </c>
       <c r="X31" t="n">
-        <v>3160.164713532175</v>
+        <v>3744.978273055632</v>
       </c>
       <c r="Y31" t="n">
-        <v>2939.372134388645</v>
+        <v>3524.185693912102</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>671.2000270096659</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>1268.578514636218</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>847.644273983533</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711973</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6883,25 +6885,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>1198.22892174168</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6926,28 +6928,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7017,22 +7019,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M36" t="n">
-        <v>1174.766565373399</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N36" t="n">
-        <v>1802.364528928006</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>2757.723669558405</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>2438.670847218162</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.199413378161</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>315.9123021921482</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898187001</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,16 +7402,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>869.6905094135296</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>700.7543264856228</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
         <v>402.7245934908939</v>
@@ -7594,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2333.297989183966</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>2044.222762528164</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1789.538274322277</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1500.121104285317</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.131553387299</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1051.338974243769</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7628,22 +7630,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7655,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>2381.981709809277</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>2877.307316025036</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>3474.685803651587</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>4102.283767206194</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>929.7309773356195</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>1332.172021309389</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>1332.172021309389</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>1111.379442165859</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.5862749664503</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>32.89260457059885</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23890,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>62.35543909864917</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24133,10 +24135,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610393</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -24145,7 +24147,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>114.1735436840659</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24655,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>73.85777223953468</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>40.64330621514819</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>65.54986409392967</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>75.37549921169128</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25087,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25123,7 +25125,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>212.7396875474385</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844822997</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25555,13 +25557,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25834,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>171.2522535850787</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>119.6337007304339</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>917799.0280914542</v>
+        <v>917799.0280914543</v>
       </c>
     </row>
     <row r="6">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>917799.0280914542</v>
+        <v>917799.0280914541</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>917799.0280914543</v>
+        <v>917799.0280914541</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>917799.0280914542</v>
+        <v>917799.0280914541</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>917799.0280914542</v>
+        <v>917799.0280914541</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="C2" t="n">
         <v>513151.106165177</v>
@@ -26320,22 +26322,22 @@
         <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062539</v>
       </c>
       <c r="F2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="H2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="I2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="J2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="K2" t="n">
         <v>504466.6248062537</v>
@@ -26344,13 +26346,13 @@
         <v>504466.6248062536</v>
       </c>
       <c r="M2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="N2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="P2" t="n">
         <v>504466.6248062536</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073559</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813254</v>
+        <v>89744.12305813246</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813252</v>
+        <v>89744.12305813245</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26476,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,28 +26524,28 @@
         <v>-1013271.703181942</v>
       </c>
       <c r="C6" t="n">
-        <v>315473.0425456512</v>
+        <v>315473.0425456513</v>
       </c>
       <c r="D6" t="n">
         <v>315473.0425456513</v>
       </c>
       <c r="E6" t="n">
-        <v>67374.54488820967</v>
+        <v>67374.54488820964</v>
       </c>
       <c r="F6" t="n">
+        <v>392787.0066955657</v>
+      </c>
+      <c r="G6" t="n">
         <v>392787.0066955655</v>
-      </c>
-      <c r="G6" t="n">
-        <v>392787.0066955658</v>
       </c>
       <c r="H6" t="n">
         <v>392787.0066955654</v>
       </c>
       <c r="I6" t="n">
-        <v>392787.0066955654</v>
+        <v>392787.0066955655</v>
       </c>
       <c r="J6" t="n">
-        <v>175255.804298288</v>
+        <v>175255.8042982881</v>
       </c>
       <c r="K6" t="n">
         <v>392787.0066955654</v>
@@ -26552,7 +26554,7 @@
         <v>392787.0066955653</v>
       </c>
       <c r="M6" t="n">
-        <v>307731.9787600536</v>
+        <v>307731.9787600534</v>
       </c>
       <c r="N6" t="n">
         <v>392787.0066955653</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26805,7 +26807,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27430,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>75.30793932002615</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>307.2767095024426</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,19 +27545,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>115.4698465084169</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>16.14213605696594</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>344.7977227232777</v>
+        <v>306.4732379112239</v>
       </c>
     </row>
     <row r="6">
@@ -27786,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>125.7650054258774</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>109.7532162242325</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>271.6655159950195</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>339.2974506769204</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>87.15817019402186</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>38.1372948466046</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,10 +28073,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29569,7 +29571,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29706,7 +29708,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -31750,34 +31752,34 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
         <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
         <v>593.8732233669225</v>
@@ -31789,10 +31791,10 @@
         <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31831,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>639.8517673857147</v>
       </c>
       <c r="O12" t="n">
-        <v>363.5371514786837</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31923,31 +31925,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
         <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
         <v>0.1345549672467222</v>
@@ -32078,28 +32080,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>620.1193660647489</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>363.5371514786837</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.6544928674244</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>244.0266243181832</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32707,34 +32709,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32794,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q24" t="n">
-        <v>353.2560498238277</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,7 +33025,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33035,10 +33037,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>491.5977325265315</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33266,7 +33268,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>248.7449369209185</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33500,10 +33502,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>233.3139244897921</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,13 +33514,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33737,10 +33739,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>237.3557891543625</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33892,7 +33894,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33968,22 +33970,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>362.8934092184361</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>518.0009690113193</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,7 +33994,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34205,31 +34207,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>318.3985571819322</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34387,7 +34389,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34448,13 +34450,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>138.5955196772182</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34469,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
         <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35491,28 @@
         <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>508.5100553023814</v>
       </c>
       <c r="O12" t="n">
-        <v>220.9409070342392</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35726,28 +35728,28 @@
         <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>477.9853321427306</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>220.9409070342392</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>101.8925903961649</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,22 +36442,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q24" t="n">
-        <v>213.2742757378062</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36683,10 +36685,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>349.0014880820871</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36914,7 +36916,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>110.1905571410443</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -37002,7 +37004,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060414</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37148,10 +37150,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>94.75954470991793</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,13 +37162,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,10 +37387,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>94.75954470991805</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37616,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>224.339029438562</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>386.659256927986</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,7 +37642,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37853,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>176.2645232599139</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38035,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38096,13 +38098,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0.7540807028592577</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38117,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1478350.049466211</v>
+        <v>1474337.439452217</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283177</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>62.45439117602642</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>23.79925355567458</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>50.55596175061132</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -882,7 +882,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>171.9731989154901</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>79.76470074482967</v>
+        <v>227.7172236952946</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>71.67037196991711</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>142.3844270995955</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>111.068325668461</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>298.730729942234</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>92.67380998791543</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,10 +1302,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>155.1499317420163</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620684</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>110.0177171766865</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>253.2918698186453</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1779,10 +1779,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.2658363185655</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>10.63412424768302</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701359</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>104.8913819999787</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611381</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>19.91555826189198</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>177.6965697803355</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428209</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>66.85274231757869</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,19 +2769,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>212.3267021497095</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2851,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
-        <v>105.6507867899533</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>160.1763464053468</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3040,13 +3040,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>148.0280580960842</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>99.9742741983392</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428257</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428658</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053459</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000794</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>19.91555826189063</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4327,31 +4327,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X2" t="n">
-        <v>2008.890142568492</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y2" t="n">
-        <v>1618.75081059268</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686085</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106476</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080141</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>362.8175152271517</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C4" t="n">
-        <v>362.8175152271517</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>362.8175152271517</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>214.9044216447586</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>214.9044216447586</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,10 +4509,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
         <v>1645.778206672847</v>
@@ -4524,16 +4524,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621296</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W4" t="n">
-        <v>590.8070661251691</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X4" t="n">
-        <v>362.8175152271517</v>
+        <v>417.0967641903301</v>
       </c>
       <c r="Y4" t="n">
-        <v>362.8175152271517</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1617.939223126803</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
         <v>1617.939223126803</v>
@@ -4564,13 +4564,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4579,16 +4579,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="Y5" t="n">
-        <v>1617.939223126803</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4652,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4761,16 +4761,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1783.471894452538</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>1494.054724415577</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X7" t="n">
-        <v>1494.054724415577</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1917.382287315189</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C8" t="n">
-        <v>1548.419770374778</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1190.154071768027</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.03827352421</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X8" t="n">
-        <v>2029.57251526313</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="Y8" t="n">
-        <v>2029.57251526313</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="9">
@@ -4874,13 +4874,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.8675266085669</v>
+        <v>934.4107598040977</v>
       </c>
       <c r="C10" t="n">
-        <v>461.8675266085669</v>
+        <v>765.4745768761908</v>
       </c>
       <c r="D10" t="n">
-        <v>311.7508871962312</v>
+        <v>615.357937463855</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>467.4448438814619</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>320.5548963835515</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1548.361223971664</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1293.676735765777</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1004.259565728817</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>776.2700148307995</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>555.4774356872693</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5023,34 +5023,34 @@
         <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5120,25 +5120,25 @@
         <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756267</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756267</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021791</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
         <v>402.7245934908939</v>
@@ -5199,13 +5199,13 @@
         <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
         <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.15024091081</v>
@@ -5214,37 +5214,37 @@
         <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580262</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580262</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,46 +5266,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969299</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>789.7592298206044</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>620.8230468926976</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>470.7064074803618</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5463,25 +5463,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580261</v>
+        <v>2253.366709591041</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>971.4076946508442</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,25 +5503,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5536,19 +5536,19 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5682,7 +5682,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5691,34 +5691,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5773,31 +5773,31 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2824.769373306004</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C22" t="n">
-        <v>2655.833190378097</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D22" t="n">
-        <v>2505.716550965761</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>2357.803457383368</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>2337.686731866305</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>2337.686731866305</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053499</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>4288.37685307644</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U22" t="n">
-        <v>3999.301626420638</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V22" t="n">
-        <v>3744.617138214751</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W22" t="n">
-        <v>3455.199968177791</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X22" t="n">
-        <v>3227.210417279774</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y22" t="n">
-        <v>3006.417838136244</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="23">
@@ -5977,25 +5977,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362675</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.435061037252</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2159.833596060193</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1870.758369404391</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.073881198504</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1326.656711161544</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1098.667160263526</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6205,34 +6205,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6241,34 +6241,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J27" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K27" t="n">
-        <v>2565.513299557012</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L27" t="n">
-        <v>3060.83890577277</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M27" t="n">
-        <v>3060.83890577277</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N27" t="n">
-        <v>3688.436869327377</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O27" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1762.98966419767</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1508.305175991783</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1508.305175991783</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.315625093766</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6481,34 +6481,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3342.537229081862</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>3173.601046153955</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159226</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661316</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376196</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218394</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866308</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296631</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.61201282217</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.01060699811</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729145</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389153</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>4517.069482196496</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>4517.069482196496</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>4517.069482196496</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>4262.384993990609</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>3972.967823953649</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>3744.978273055632</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>3524.185693912102</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6679,37 +6679,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
@@ -6718,31 +6718,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1338.103121340305</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.113570442288</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3209912987577</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2757.723669558405</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C37" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D37" t="n">
-        <v>2438.670847218162</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E37" t="n">
-        <v>2337.686731866304</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F37" t="n">
-        <v>2337.686731866304</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G37" t="n">
-        <v>2337.686731866304</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>3160.164713532175</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y37" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M39" t="n">
-        <v>924.8344286397182</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400762</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121693</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121693</v>
       </c>
       <c r="E40" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121693</v>
       </c>
       <c r="F40" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121693</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270493</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832668</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510513</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854711</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138461</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703159</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7502,16 +7502,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7636,25 +7636,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2426.846358063199</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2243.991523718104</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2024.390058741045</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1735.314832085242</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1480.630343879355</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1191.213173842395</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>963.2236229443774</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>36.41624546988271</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>32.89260457059885</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>206.7713260796052</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891647</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>62.35543909864917</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>138.4949402405065</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>125.5054897610393</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>39.7088805469528</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>114.1735436840659</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>73.85777223953468</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>75.37549921169128</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>57.22910392194146</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>138.4949402405068</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>46.45968844822997</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194129</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392193728</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194237</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891647</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.45968844823106</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>917799.0280914543</v>
+        <v>917799.0280914542</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>917799.0280914543</v>
+        <v>917799.0280914542</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>917799.0280914541</v>
+        <v>917799.0280914542</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>917799.0280914541</v>
+        <v>917799.0280914543</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>917799.0280914543</v>
+        <v>917799.0280914541</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>917799.0280914541</v>
+        <v>917799.0280914542</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>917799.0280914541</v>
+        <v>917799.0280914542</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>917799.0280914541</v>
+        <v>917799.0280914543</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>917799.0280914541</v>
+        <v>917799.0280914543</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>917799.0280914541</v>
+        <v>917799.0280914542</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="C2" t="n">
         <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="F2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="H2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="I2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="J2" t="n">
+        <v>504466.6248062539</v>
+      </c>
+      <c r="K2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>504466.6248062538</v>
-      </c>
-      <c r="K2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="L2" t="n">
-        <v>504466.6248062536</v>
       </c>
       <c r="M2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="O2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073559</v>
+        <v>325412.4618073558</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813246</v>
+        <v>89744.12305813254</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813245</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813257</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26481,19 +26481,19 @@
         <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="K5" t="n">
         <v>101122.5298239071</v>
@@ -26505,7 +26505,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="O5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1013271.703181942</v>
+        <v>-1013271.703181941</v>
       </c>
       <c r="C6" t="n">
-        <v>315473.0425456513</v>
+        <v>315473.042545651</v>
       </c>
       <c r="D6" t="n">
-        <v>315473.0425456513</v>
+        <v>315473.0425456511</v>
       </c>
       <c r="E6" t="n">
-        <v>67374.54488820964</v>
+        <v>67027.16563385271</v>
       </c>
       <c r="F6" t="n">
-        <v>392787.0066955657</v>
+        <v>392439.6274412085</v>
       </c>
       <c r="G6" t="n">
-        <v>392787.0066955655</v>
+        <v>392439.6274412085</v>
       </c>
       <c r="H6" t="n">
-        <v>392787.0066955654</v>
+        <v>392439.6274412085</v>
       </c>
       <c r="I6" t="n">
-        <v>392787.0066955655</v>
+        <v>392439.6274412083</v>
       </c>
       <c r="J6" t="n">
-        <v>175255.8042982881</v>
+        <v>174908.4250439311</v>
       </c>
       <c r="K6" t="n">
-        <v>392787.0066955654</v>
+        <v>392439.6274412086</v>
       </c>
       <c r="L6" t="n">
-        <v>392787.0066955653</v>
+        <v>392439.6274412085</v>
       </c>
       <c r="M6" t="n">
-        <v>307731.9787600534</v>
+        <v>307384.5995056964</v>
       </c>
       <c r="N6" t="n">
-        <v>392787.0066955653</v>
+        <v>392439.6274412082</v>
       </c>
       <c r="O6" t="n">
-        <v>392787.0066955654</v>
+        <v>392439.6274412086</v>
       </c>
       <c r="P6" t="n">
-        <v>392787.0066955653</v>
+        <v>392439.6274412085</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26810,22 +26810,22 @@
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27047,7 +27047,7 @@
         <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>307.2767095024426</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>362.438685100379</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>115.4698465084169</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>53.73645647354704</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>306.4732379112239</v>
+        <v>158.520714960759</v>
       </c>
     </row>
     <row r="6">
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>94.35543628911111</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,13 +27833,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>109.7532162242325</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>271.6655159950195</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>71.00037073623503</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>87.15817019402186</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,10 +28022,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>10.87587651701187</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -29571,7 +29571,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29708,7 +29708,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -30237,7 +30237,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30425,7 +30425,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,34 +31752,34 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
         <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
         <v>593.8732233669225</v>
@@ -31791,10 +31791,10 @@
         <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,43 +31831,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420756</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>639.8517673857147</v>
+        <v>616.9033572954385</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214701</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485292</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742441</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31925,31 +31925,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
         <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
         <v>0.1345549672467222</v>
@@ -32074,31 +32074,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647489</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32268,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,25 +32311,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,7 +32341,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32408,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,40 +32463,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32505,7 +32505,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,25 +32548,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,7 +32578,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32645,7 +32645,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32709,7 +32709,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
         <v>699.5441750817577</v>
@@ -32785,13 +32785,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>491.5977325265315</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817556</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P33" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>518.0009690113193</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669205</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162543</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M45" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396422</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193523</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
         <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641942</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>508.5100553023814</v>
+        <v>485.5616452121051</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992802</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071399</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>477.9853321427306</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36053,7 +36053,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36290,7 +36290,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36357,7 +36357,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.4543240367771</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>349.0014880820871</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.454324036775</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060414</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P33" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>386.659256927986</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572999026</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492471</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146267</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M45" t="n">
-        <v>303.8786972770459</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1474337.439452217</v>
+        <v>1476097.969755003</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283177</v>
+        <v>416855.1052283195</v>
       </c>
     </row>
     <row r="9">
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>23.79925355567458</v>
+        <v>23.79925355567503</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -825,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>5.947390656462364</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -882,7 +882,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>171.9731989154901</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>227.7172236952946</v>
+        <v>227.7172236952951</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>71.67037196991711</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>13.02719212039627</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1186,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>298.730729942234</v>
+        <v>94.81275980261485</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>77.31354443380459</v>
       </c>
       <c r="G10" t="n">
-        <v>155.1499317420163</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>110.0177171766865</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>91.8999605662476</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>10.63412424768302</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701359</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>42.5313457611381</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>206.7582264966181</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>36.4306205949047</v>
       </c>
       <c r="T22" t="n">
-        <v>177.6965697803355</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428209</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2614,13 +2614,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788180381</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>194.0641876011614</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053468</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>148.0280580960842</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>42.53134576113275</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428257</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428658</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>78.34975387299224</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>36.39209596079228</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788180381</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4330,16 +4330,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4348,7 +4348,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
@@ -4400,10 +4400,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4412,10 +4412,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4427,10 +4427,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235.4482993600903</v>
+        <v>409.1586012949293</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218342</v>
+        <v>240.2224183670224</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218342</v>
+        <v>240.2224183670224</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
         <v>66.51211643218342</v>
@@ -4488,16 +4488,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,10 +4509,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
         <v>1645.778206672847</v>
@@ -4524,16 +4524,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621292</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>590.8070661251686</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X4" t="n">
-        <v>417.0967641903301</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y4" t="n">
-        <v>417.0967641903301</v>
+        <v>590.8070661251691</v>
       </c>
     </row>
     <row r="5">
@@ -4567,13 +4567,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4652,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>752.7622949738579</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C7" t="n">
-        <v>583.826112045951</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D7" t="n">
-        <v>433.7094726336153</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E7" t="n">
-        <v>285.7963790512222</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F7" t="n">
-        <v>138.9064315533118</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>225.8880831339178</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>79.67089635177561</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4761,16 +4761,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1672.610059882606</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W7" t="n">
-        <v>1383.192889845645</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X7" t="n">
-        <v>1155.203338947628</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y7" t="n">
-        <v>934.4107598040977</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="8">
@@ -4801,10 +4801,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4816,34 +4816,34 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.72178906653</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796416</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
         <v>1976.204921733553</v>
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>934.4107598040977</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C10" t="n">
-        <v>765.4745768761908</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D10" t="n">
-        <v>615.357937463855</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="E10" t="n">
-        <v>467.4448438814619</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="F10" t="n">
-        <v>320.5548963835515</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5056,37 +5056,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,22 +5114,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191926</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349515</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061504</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
         <v>2001.151557821488</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400721</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400721</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>789.7592298206044</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C16" t="n">
-        <v>620.8230468926976</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D16" t="n">
-        <v>470.7064074803618</v>
+        <v>481.447947124485</v>
       </c>
       <c r="E16" t="n">
-        <v>322.7933138979687</v>
+        <v>333.5348535420919</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>186.6449060441816</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235166</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2253.366709591041</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U16" t="n">
-        <v>1964.291482935239</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V16" t="n">
-        <v>1709.606994729352</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W16" t="n">
-        <v>1420.189824692392</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X16" t="n">
-        <v>1192.200273794374</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y16" t="n">
-        <v>971.4076946508442</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,40 +5764,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.8641191832229</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>634.927936255316</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2410.164476918741</v>
       </c>
       <c r="T22" t="n">
-        <v>2267.47159895366</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U22" t="n">
-        <v>1978.396372297858</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V22" t="n">
-        <v>1723.711884091971</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W22" t="n">
-        <v>1434.29471405501</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X22" t="n">
-        <v>1206.305163156993</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.5125840134626</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="23">
@@ -5977,31 +5977,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362675</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,58 +6214,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591809</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192603</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6694,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,28 +6712,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6922,52 +6922,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400721</v>
+        <v>696.7084350851626</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121652</v>
+        <v>527.7722521572557</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270452</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.3159148556</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199797</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.55619999391</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.13902995695</v>
       </c>
       <c r="X37" t="n">
-        <v>916.294644713842</v>
+        <v>1099.149479058932</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703119</v>
+        <v>878.3568999154023</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479719</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
@@ -7189,37 +7189,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400762</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121693</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121693</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121693</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121693</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270493</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832668</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487572</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510513</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854711</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648824</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611863</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138461</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703159</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
@@ -7399,37 +7399,37 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2343.157686942974</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.963083580261</v>
+        <v>2123.556221965915</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1834.480995310113</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1579.796507104226</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1290.379337067265</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1062.389786169248</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>841.597207025718</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>36.41624546988271</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>73.62417772602124</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>206.7713260796052</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>138.4949402405065</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>79.42624789262601</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>144.5956654067399</v>
       </c>
       <c r="T22" t="n">
-        <v>39.7088805469528</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462278</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.22910392194126</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>92.12028678808278</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194146</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>106.0841272570796</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194129</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392193728</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>147.3599015160449</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>144.6341900408523</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891647</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194126</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>917799.0280914542</v>
+        <v>917799.0280914541</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>917799.0280914542</v>
+        <v>917799.0280914543</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>917799.0280914543</v>
+        <v>917799.0280914542</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>917799.0280914541</v>
+        <v>917799.0280914542</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>917799.0280914542</v>
+        <v>917799.0280914541</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>917799.0280914542</v>
+        <v>917799.0280914541</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>917799.0280914542</v>
+        <v>917799.0280914541</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>917799.0280914543</v>
+        <v>917799.0280914542</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>917799.0280914543</v>
+        <v>917799.0280914541</v>
       </c>
     </row>
     <row r="16">
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
         <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="H2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062535</v>
       </c>
       <c r="I2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="J2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="J2" t="n">
-        <v>504466.6248062539</v>
-      </c>
       <c r="K2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="L2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="M2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="N2" t="n">
         <v>504466.6248062537</v>
@@ -26355,7 +26355,7 @@
         <v>504466.6248062538</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073558</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813254</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813257</v>
+        <v>89744.12305813252</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26478,22 +26478,22 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
         <v>101122.5298239071</v>
@@ -26505,7 +26505,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-1013271.703181941</v>
       </c>
       <c r="C6" t="n">
-        <v>315473.042545651</v>
+        <v>315473.0425456512</v>
       </c>
       <c r="D6" t="n">
-        <v>315473.0425456511</v>
+        <v>315473.0425456512</v>
       </c>
       <c r="E6" t="n">
-        <v>67027.16563385271</v>
+        <v>67339.80696277451</v>
       </c>
       <c r="F6" t="n">
-        <v>392439.6274412085</v>
+        <v>392752.2687701296</v>
       </c>
       <c r="G6" t="n">
-        <v>392439.6274412085</v>
+        <v>392752.2687701296</v>
       </c>
       <c r="H6" t="n">
-        <v>392439.6274412085</v>
+        <v>392752.2687701295</v>
       </c>
       <c r="I6" t="n">
-        <v>392439.6274412083</v>
+        <v>392752.2687701297</v>
       </c>
       <c r="J6" t="n">
-        <v>174908.4250439311</v>
+        <v>175221.0663728522</v>
       </c>
       <c r="K6" t="n">
-        <v>392439.6274412086</v>
+        <v>392752.2687701297</v>
       </c>
       <c r="L6" t="n">
-        <v>392439.6274412085</v>
+        <v>392752.2687701297</v>
       </c>
       <c r="M6" t="n">
-        <v>307384.5995056964</v>
+        <v>307697.2408346178</v>
       </c>
       <c r="N6" t="n">
-        <v>392439.6274412082</v>
+        <v>392752.2687701297</v>
       </c>
       <c r="O6" t="n">
-        <v>392439.6274412086</v>
+        <v>392752.2687701297</v>
       </c>
       <c r="P6" t="n">
-        <v>392439.6274412085</v>
+        <v>392752.2687701297</v>
       </c>
     </row>
   </sheetData>
@@ -26789,43 +26789,43 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022924</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>362.438685100379</v>
+        <v>362.4386851003786</v>
       </c>
     </row>
     <row r="3">
@@ -27545,19 +27545,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>140.4865719901068</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>53.73645647354704</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>158.520714960759</v>
+        <v>158.5207149607585</v>
       </c>
     </row>
     <row r="6">
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>94.35543628911111</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>83.32522828944182</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>71.00037073623503</v>
+        <v>274.9183408758542</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>68.10750358912665</v>
       </c>
       <c r="G10" t="n">
-        <v>10.87587651701187</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -29334,7 +29334,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29450,7 +29450,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>-2.419498242208011e-12</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30185,7 +30185,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30237,7 +30237,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30425,7 +30425,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>616.9033572954385</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817556</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669205</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162543</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>485.5616452121051</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036775</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,25 +37463,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066202</v>
       </c>
       <c r="Q37" t="n">
         <v>120.4022572998984</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572999026</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492471</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146267</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
